--- a/BulunTe_IphoneMonitor.xlsx
+++ b/BulunTe_IphoneMonitor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AltanGadasTbl\U of Michigan\Winter 2024 Course\620\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AltanGadasTbl\Documents\B-620-HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CFC7D-A9BD-48DB-AE81-B2AFB8A33F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F5DAB9-A6FD-4053-8A73-73AC9216EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DCD145E-907B-4748-911F-90DF9DE12DC4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,62 @@
   </si>
   <si>
     <t>2h19min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/27/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/28/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/29/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/30/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/31/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/1/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h12min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h10min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87610EBD-37D3-4AD0-89AC-A41D916B2B6C}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E28" si="2">IF(ISERROR(FIND("h", D18)), 0, LEFT(D18, FIND("h", D18)-1)*60) + IF(ISERROR(FIND("min", D18)), 0, MID(D18, IF(ISERROR(FIND("h", D18)), 1, FIND("h", D18)+1), FIND("min", D18) - IF(ISERROR(FIND("h", D18)), 1, FIND("h", D18)+1)))</f>
+        <f t="shared" ref="E18:E34" si="2">IF(ISERROR(FIND("h", D18)), 0, LEFT(D18, FIND("h", D18)-1)*60) + IF(ISERROR(FIND("min", D18)), 0, MID(D18, IF(ISERROR(FIND("h", D18)), 1, FIND("h", D18)+1), FIND("min", D18) - IF(ISERROR(FIND("h", D18)), 1, FIND("h", D18)+1)))</f>
         <v>63</v>
       </c>
       <c r="F18">
@@ -1192,7 +1248,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C28" si="3">IF(ISERROR(FIND("h", B21)), 0, LEFT(B21, FIND("h", B21)-1)*60) + IF(ISERROR(FIND("min", B21)), 0, MID(B21, IF(ISERROR(FIND("h", B21)), 1, FIND("h", B21)+1), FIND("min", B21) - IF(ISERROR(FIND("h", B21)), 1, FIND("h", B21)+1)))</f>
+        <f t="shared" ref="C21:C34" si="3">IF(ISERROR(FIND("h", B21)), 0, LEFT(B21, FIND("h", B21)-1)*60) + IF(ISERROR(FIND("min", B21)), 0, MID(B21, IF(ISERROR(FIND("h", B21)), 1, FIND("h", B21)+1), FIND("min", B21) - IF(ISERROR(FIND("h", B21)), 1, FIND("h", B21)+1)))</f>
         <v>31</v>
       </c>
       <c r="D21" t="s">
@@ -1382,6 +1438,156 @@
       </c>
       <c r="G28" s="1">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.486111111111111E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>76</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.32222222222222224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>85</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.32013888888888892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.1527777777777781E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F34">
+        <v>84</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9.7222222222222224E-3</v>
       </c>
     </row>
   </sheetData>

--- a/BulunTe_IphoneMonitor.xlsx
+++ b/BulunTe_IphoneMonitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AltanGadasTbl\Documents\B-620-HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F5DAB9-A6FD-4053-8A73-73AC9216EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52238B-0C00-4005-82BD-DBC83C9C1017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DCD145E-907B-4748-911F-90DF9DE12DC4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,42 +55,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/16/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2h24min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/17/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1h3min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/18/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/19/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/20/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/21/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/22/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2h32min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,14 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/25/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/24/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1h34min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,18 +99,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/23/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4h5min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/31/23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/26/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5h33min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,30 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/27/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/28/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/29/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/30/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/31/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/1/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>59min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,6 +284,70 @@
   </si>
   <si>
     <t>1h10min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h29min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h16min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h27min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h7min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h14min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h31min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h2min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h3min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h8min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +406,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87610EBD-37D3-4AD0-89AC-A41D916B2B6C}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,18 +761,18 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
+      <c r="A2" s="2">
+        <v>45291</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C17" si="0">IF(ISERROR(FIND("h", B2)), 0, LEFT(B2, FIND("h", B2)-1)*60) + IF(ISERROR(FIND("min", B2)), 0, MID(B2, IF(ISERROR(FIND("h", B2)), 1, FIND("h", B2)+1), FIND("min", B2) - IF(ISERROR(FIND("h", B2)), 1, FIND("h", B2)+1)))</f>
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E17" si="1">IF(ISERROR(FIND("h", D2)), 0, LEFT(D2, FIND("h", D2)-1)*60) + IF(ISERROR(FIND("min", D2)), 0, MID(D2, IF(ISERROR(FIND("h", D2)), 1, FIND("h", D2)+1), FIND("min", D2) - IF(ISERROR(FIND("h", D2)), 1, FIND("h", D2)+1)))</f>
@@ -795,14 +790,14 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
@@ -820,14 +815,14 @@
         <v>45293</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -845,14 +840,14 @@
         <v>45294</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -870,14 +865,14 @@
         <v>45295</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -895,14 +890,14 @@
         <v>45296</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -920,14 +915,14 @@
         <v>45297</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -945,14 +940,14 @@
         <v>45298</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -970,14 +965,14 @@
         <v>45299</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -995,14 +990,14 @@
         <v>45300</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -1020,14 +1015,14 @@
         <v>45301</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -1045,14 +1040,14 @@
         <v>45302</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -1070,14 +1065,14 @@
         <v>45303</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1095,14 +1090,14 @@
         <v>45304</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -1120,14 +1115,14 @@
         <v>45305</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -1145,14 +1140,14 @@
         <v>45306</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -1166,21 +1161,21 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B18" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
       </c>
       <c r="C18">
         <f>IF(ISERROR(FIND("h", B18)), 0, LEFT(B18, FIND("h", B18)-1)*60) + IF(ISERROR(FIND("min", B18)), 0, MID(B18, IF(ISERROR(FIND("h", B18)), 1, FIND("h", B18)+1), FIND("min", B18) - IF(ISERROR(FIND("h", B18)), 1, FIND("h", B18)+1)))</f>
         <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E34" si="2">IF(ISERROR(FIND("h", D18)), 0, LEFT(D18, FIND("h", D18)-1)*60) + IF(ISERROR(FIND("min", D18)), 0, MID(D18, IF(ISERROR(FIND("h", D18)), 1, FIND("h", D18)+1), FIND("min", D18) - IF(ISERROR(FIND("h", D18)), 1, FIND("h", D18)+1)))</f>
+        <f t="shared" ref="E18:E46" si="2">IF(ISERROR(FIND("h", D18)), 0, LEFT(D18, FIND("h", D18)-1)*60) + IF(ISERROR(FIND("min", D18)), 0, MID(D18, IF(ISERROR(FIND("h", D18)), 1, FIND("h", D18)+1), FIND("min", D18) - IF(ISERROR(FIND("h", D18)), 1, FIND("h", D18)+1)))</f>
         <v>63</v>
       </c>
       <c r="F18">
@@ -1191,18 +1186,18 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
+      <c r="A19" s="2">
+        <v>45308</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <f>IF(ISERROR(FIND("h", B19)), 0, LEFT(B19, FIND("h", B19)-1)*60) + IF(ISERROR(FIND("min", B19)), 0, MID(B19, IF(ISERROR(FIND("h", B19)), 1, FIND("h", B19)+1), FIND("min", B19) - IF(ISERROR(FIND("h", B19)), 1, FIND("h", B19)+1)))</f>
         <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
@@ -1216,18 +1211,18 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
+      <c r="A20" s="2">
+        <v>45309</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <f>IF(ISERROR(FIND("h", B20)), 0, LEFT(B20, FIND("h", B20)-1)*60) + IF(ISERROR(FIND("min", B20)), 0, MID(B20, IF(ISERROR(FIND("h", B20)), 1, FIND("h", B20)+1), FIND("min", B20) - IF(ISERROR(FIND("h", B20)), 1, FIND("h", B20)+1)))</f>
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
@@ -1241,18 +1236,18 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
       <c r="C21">
-        <f t="shared" ref="C21:C34" si="3">IF(ISERROR(FIND("h", B21)), 0, LEFT(B21, FIND("h", B21)-1)*60) + IF(ISERROR(FIND("min", B21)), 0, MID(B21, IF(ISERROR(FIND("h", B21)), 1, FIND("h", B21)+1), FIND("min", B21) - IF(ISERROR(FIND("h", B21)), 1, FIND("h", B21)+1)))</f>
+        <f t="shared" ref="C21:C46" si="3">IF(ISERROR(FIND("h", B21)), 0, LEFT(B21, FIND("h", B21)-1)*60) + IF(ISERROR(FIND("min", B21)), 0, MID(B21, IF(ISERROR(FIND("h", B21)), 1, FIND("h", B21)+1), FIND("min", B21) - IF(ISERROR(FIND("h", B21)), 1, FIND("h", B21)+1)))</f>
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
@@ -1266,18 +1261,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
+      <c r="A22" s="2">
+        <v>45311</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
@@ -1291,18 +1286,18 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
+      <c r="A23" s="2">
+        <v>45312</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
@@ -1316,18 +1311,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
+      <c r="A24" s="2">
+        <v>45313</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
@@ -1341,18 +1336,18 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
+      <c r="A25" s="2">
+        <v>45314</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
@@ -1366,18 +1361,18 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45315</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
@@ -1391,18 +1386,18 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
+      <c r="A27" s="2">
+        <v>45316</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
@@ -1416,18 +1411,18 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>66</v>
+      <c r="A28" s="2">
+        <v>45317</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
@@ -1441,18 +1436,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
+      <c r="A29" s="2">
+        <v>45318</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
@@ -1466,18 +1461,18 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
+      <c r="A30" s="2">
+        <v>45319</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
@@ -1491,18 +1486,18 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
+      <c r="A31" s="2">
+        <v>45320</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
@@ -1516,18 +1511,18 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>72</v>
+      <c r="A32" s="2">
+        <v>45321</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
@@ -1541,18 +1536,18 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>73</v>
+      <c r="A33" s="2">
+        <v>45322</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
@@ -1566,18 +1561,18 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>74</v>
+      <c r="A34" s="2">
+        <v>45323</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
@@ -1589,6 +1584,321 @@
       <c r="G34" s="1">
         <v>9.7222222222222224E-3</v>
       </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>43</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.34097222222222223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>23</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.30763888888888891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>59</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F39">
+        <v>63</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41">
+        <f>IF(ISERROR(FIND("h", D41)), 0, LEFT(D41, FIND("h", D41)-1)*60) + IF(ISERROR(FIND("min", D41)), 0, MID(D41, IF(ISERROR(FIND("h", D41)), 1, FIND("h", D41)+1), FIND("min", D41) - IF(ISERROR(FIND("h", D41)), 1, FIND("h", D41)+1)))</f>
+        <v>87</v>
+      </c>
+      <c r="F41">
+        <v>78</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.31875000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>87</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.20416666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.30416666666666664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F44">
+        <v>34</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.3215277777777778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="F45">
+        <v>66</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.32916666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
